--- a/data/runtime_scenario.xlsx
+++ b/data/runtime_scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Doutorado\Publicações\Papers\paper_tpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21727E2A-DF6B-4B43-B364-3F3D3B90B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5BBC3-C568-4073-8A34-8FCE740EE68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,8 +431,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <f>2160*1367/1000000</f>
-        <v>2.9527199999999998</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>694.25</v>
@@ -450,8 +449,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <f>(1620*1020) / 1000000</f>
-        <v>1.6524000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="D3">
         <v>358.38</v>
@@ -469,8 +467,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <f>1078*680/1000000</f>
-        <v>0.73304000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
         <v>226.25</v>
@@ -488,8 +485,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <f>808*510/1000000</f>
-        <v>0.41208</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
         <v>176.95</v>
@@ -507,8 +503,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f>270*170/1000000</f>
-        <v>4.5900000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
         <v>90.980000000000501</v>
@@ -526,8 +521,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <f>2160*1367/1000000</f>
-        <v>2.9527199999999998</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>407.65</v>
@@ -545,8 +539,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <f>(1620*1020) / 1000000</f>
-        <v>1.6524000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="D8" s="1">
         <v>185.56</v>
@@ -564,8 +557,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <f>1078*680/1000000</f>
-        <v>0.73304000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="D9" s="1">
         <v>112.87</v>
@@ -583,8 +575,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <f>808*510/1000000</f>
-        <v>0.41208</v>
+        <v>0.4</v>
       </c>
       <c r="D10" s="1">
         <v>96.9</v>
@@ -602,8 +593,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <f>270*170/1000000</f>
-        <v>4.5900000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>48.05</v>

--- a/data/runtime_scenario.xlsx
+++ b/data/runtime_scenario.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Doutorado\Publicações\Papers\paper_tpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5BBC3-C568-4073-8A34-8FCE740EE68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F12977D-9B87-4211-AD5E-3D92D6BDDFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,9 +74,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,11 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +406,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -413,7 +422,7 @@
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
@@ -430,15 +439,14 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2">
         <v>694.25</v>
       </c>
       <c r="E2">
-        <f>D2/205</f>
-        <v>3.3865853658536587</v>
+        <v>3.2568867924528302</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -448,15 +456,14 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.7</v>
       </c>
       <c r="D3">
         <v>358.38</v>
       </c>
       <c r="E3">
-        <f>D3/205</f>
-        <v>1.7481951219512195</v>
+        <v>2.4954716981132101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -466,15 +473,14 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.7</v>
       </c>
       <c r="D4">
         <v>226.25</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">D4/205</f>
-        <v>1.1036585365853659</v>
+        <v>1.2191037735849055</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,15 +490,14 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.4</v>
       </c>
       <c r="D5">
         <v>176.95</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.86317073170731706</v>
+        <v>1.0916037735849105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -509,8 +514,7 @@
         <v>90.980000000000501</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.44380487804878294</v>
+        <v>0.67943396226415087</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -520,15 +524,14 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7">
         <v>407.65</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1.9885365853658536</v>
+        <v>1.048820754716981</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,15 +541,14 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1.7</v>
       </c>
       <c r="D8" s="1">
         <v>185.56</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.9051707317073171</v>
+        <v>0.57721698113207554</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,15 +558,14 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.7</v>
       </c>
       <c r="D9" s="1">
         <v>112.87</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.55058536585365858</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,15 +575,14 @@
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.4</v>
       </c>
       <c r="D10" s="1">
         <v>96.9</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.47268292682926832</v>
+        <v>0.20976415094339529</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -592,15 +592,14 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
+      <c r="C11" s="2">
+        <v>0.05</v>
       </c>
       <c r="D11" s="1">
         <v>48.05</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.23439024390243901</v>
+        <v>0.14179245283018821</v>
       </c>
     </row>
   </sheetData>
